--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/非金融企业部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/非金融企业部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,913 +538,555 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>63.95</v>
+        <v>666.748637</v>
       </c>
       <c r="D2" t="n">
-        <v>806.49</v>
+        <v>9227.105199339599</v>
       </c>
       <c r="E2" t="n">
-        <v>-864.12</v>
+        <v>4174.0974282455</v>
       </c>
       <c r="F2" t="n">
-        <v>-5725</v>
+        <v>-15122.5535442768</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>7096.34</v>
+        <v>62584.232838</v>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>23346</v>
+      </c>
       <c r="M2" t="n">
-        <v>569.89</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>-5.4</v>
-      </c>
+        <v>4071.8999029698</v>
+      </c>
+      <c r="N2" t="n">
+        <v>168.892362</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1398.34460208432</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-562.848440655935</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>8077.03</v>
+        <v>102863.452651845</v>
       </c>
       <c r="T2" t="n">
-        <v>93.25</v>
+        <v>585.66932703</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>91.94362099999999</v>
+        <v>931</v>
       </c>
       <c r="D3" t="n">
-        <v>-466.7187217565</v>
+        <v>8808</v>
       </c>
       <c r="E3" t="n">
-        <v>-575.63778759</v>
+        <v>4958</v>
       </c>
       <c r="F3" t="n">
-        <v>-10449.7416779346</v>
+        <v>-44271</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>10738.0103322742</v>
+        <v>41373</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>10271</v>
+      </c>
       <c r="M3" t="n">
-        <v>208.44854739</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>3211</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-157</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4020</v>
+      </c>
+      <c r="P3" t="n">
+        <v>860</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>10197.0508988268</v>
+        <v>66790</v>
       </c>
       <c r="T3" t="n">
-        <v>143.03072350908</v>
+        <v>555</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>157.5735</v>
+        <v>646</v>
       </c>
       <c r="D4" t="n">
-        <v>802.4512960488</v>
+        <v>27388</v>
       </c>
       <c r="E4" t="n">
-        <v>-424.83399285</v>
+        <v>4126</v>
       </c>
       <c r="F4" t="n">
-        <v>-14530.652677446</v>
+        <v>-44272</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>15776.3147093709</v>
+        <v>46968</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>10499</v>
+      </c>
       <c r="M4" t="n">
-        <v>-12.60371898</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>3919</v>
+      </c>
+      <c r="N4" t="n">
+        <v>951</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>16673.3859137632</v>
+        <v>94843</v>
       </c>
       <c r="T4" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>132.1377223</v>
+        <v>840.9189076011</v>
       </c>
       <c r="D5" t="n">
-        <v>2767.744698815</v>
+        <v>28317.6540193864</v>
       </c>
       <c r="E5" t="n">
-        <v>34.43852328</v>
+        <v>3875.29996288131</v>
       </c>
       <c r="F5" t="n">
-        <v>-9080.74439701956</v>
+        <v>-37420.9567131543</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>15710.600090328</v>
+        <v>59271.0440629542</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>7755.65541204741</v>
+      </c>
       <c r="M5" t="n">
-        <v>149.400626704</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>-1.9129661954</v>
-      </c>
+        <v>4517.43077311919</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5507.59641516477</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-87.769785297315</v>
+      </c>
+      <c r="P5" t="n">
+        <v>382.32717325</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>18863.2689159037</v>
+        <v>110701.473039892</v>
       </c>
       <c r="T5" t="n">
-        <v>155.515973117232</v>
+        <v>321.316098785038</v>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>192.5632447</v>
+        <v>986</v>
       </c>
       <c r="D6" t="n">
-        <v>766.5880221533999</v>
+        <v>16513</v>
       </c>
       <c r="E6" t="n">
-        <v>1743.453928392</v>
+        <v>4765</v>
       </c>
       <c r="F6" t="n">
-        <v>-14716.4260249774</v>
+        <v>-64014</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>12477.2430787636</v>
+        <v>42993</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>-1198</v>
+      </c>
       <c r="M6" t="n">
-        <v>926.128043896</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>1.7753791954</v>
-      </c>
+        <v>4903</v>
+      </c>
+      <c r="N6" t="n">
+        <v>384</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3267</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6129</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>14722.1160075984</v>
+        <v>78893</v>
       </c>
       <c r="T6" t="n">
-        <v>230.703240592485</v>
+        <v>152</v>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>242</v>
+        <v>969.553161789101</v>
       </c>
       <c r="D7" t="n">
-        <v>3421</v>
+        <v>38273.4433832522</v>
       </c>
       <c r="E7" t="n">
-        <v>1858</v>
+        <v>4122.72794379867</v>
       </c>
       <c r="F7" t="n">
-        <v>-9637</v>
+        <v>-10806.6096213505</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>19312</v>
+        <v>67002.0294113057</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>-10568.5299693679</v>
+      </c>
       <c r="M7" t="n">
-        <v>1421</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+        <v>11297.9840178457</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7190.89159797184</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3714.81810832518</v>
+      </c>
       <c r="P7" t="n">
-        <v>-132</v>
+        <v>7837.24395</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>28092</v>
+        <v>130106.299635351</v>
       </c>
       <c r="T7" t="n">
-        <v>274</v>
+        <v>266.13803043</v>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>346</v>
+        <v>938.577208386901</v>
       </c>
       <c r="D8" t="n">
-        <v>2918</v>
+        <v>29705.3095270393</v>
       </c>
       <c r="E8" t="n">
-        <v>1011</v>
+        <v>7207.08628307855</v>
       </c>
       <c r="F8" t="n">
-        <v>-11453</v>
+        <v>-16006.8609277016</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>28556</v>
+        <v>83242.08032541091</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>-19531.0557049216</v>
+      </c>
       <c r="M8" t="n">
-        <v>1201</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+        <v>14427.1842680231</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6361.30963433837</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1608.95418695422</v>
+      </c>
       <c r="P8" t="n">
-        <v>408</v>
+        <v>3037.180707</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>35237</v>
+        <v>124236.579305081</v>
       </c>
       <c r="T8" t="n">
-        <v>297</v>
+        <v>457.861243679856</v>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>493</v>
+        <v>1151</v>
       </c>
       <c r="D9" t="n">
-        <v>1610</v>
+        <v>-7661</v>
       </c>
       <c r="E9" t="n">
-        <v>713</v>
+        <v>1310</v>
       </c>
       <c r="F9" t="n">
-        <v>-27546</v>
+        <v>-56254</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>23419</v>
+        <v>50647</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>5381</v>
+      </c>
       <c r="M9" t="n">
-        <v>3716</v>
-      </c>
-      <c r="N9" t="n">
-        <v>87</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
+        <v>6881</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>-1164</v>
+      </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>5506</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>30415</v>
+        <v>72537</v>
       </c>
       <c r="T9" t="n">
-        <v>370</v>
+        <v>211</v>
       </c>
       <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>395</v>
+        <v>1070.8232714886</v>
       </c>
       <c r="D10" t="n">
-        <v>-717</v>
+        <v>-33844.6328974247</v>
       </c>
       <c r="E10" t="n">
-        <v>3717</v>
+        <v>4320.10160499493</v>
       </c>
       <c r="F10" t="n">
-        <v>-25326</v>
+        <v>-79874.5004892205</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>65916</v>
+        <v>11724.11941288</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>-6342.8544505233</v>
+      </c>
       <c r="M10" t="n">
-        <v>2999</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-184</v>
-      </c>
+        <v>6383.9780414275</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>2545</v>
+        <v>-565.017682282996</v>
       </c>
       <c r="P10" t="n">
-        <v>-5</v>
+        <v>8636.62726244745</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>75031</v>
+        <v>-4162.50736580473</v>
       </c>
       <c r="T10" t="n">
-        <v>364</v>
+        <v>230.653395788139</v>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>666.748637</v>
+        <v>1447.9713386007</v>
       </c>
       <c r="D11" t="n">
-        <v>9227.105199339599</v>
+        <v>-6899.11483987804</v>
       </c>
       <c r="E11" t="n">
-        <v>4174.0974282455</v>
+        <v>-2545.2076283553</v>
       </c>
       <c r="F11" t="n">
-        <v>-15122.5535442768</v>
+        <v>-55098.6433531006</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>62584.232838</v>
+        <v>33078.9021390028</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>23346</v>
+        <v>-4756.7244456253</v>
       </c>
       <c r="M11" t="n">
-        <v>4071.8999029698</v>
-      </c>
-      <c r="N11" t="n">
-        <v>168.892362</v>
-      </c>
+        <v>6740.02962401207</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-1398.34460208432</v>
+        <v>2231.2068776606</v>
       </c>
       <c r="P11" t="n">
-        <v>-562.848440655935</v>
+        <v>3425.9358</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>102863.452651845</v>
+        <v>39035.6204394207</v>
       </c>
       <c r="T11" t="n">
-        <v>585.66932703</v>
+        <v>358.290926580357</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>931</v>
+        <v>1156.270537935</v>
       </c>
       <c r="D12" t="n">
-        <v>8808</v>
+        <v>7036.18866487839</v>
       </c>
       <c r="E12" t="n">
-        <v>4958</v>
+        <v>2540.2626892364</v>
       </c>
       <c r="F12" t="n">
-        <v>-44271</v>
+        <v>-25112.7522557171</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>41373</v>
+        <v>75054.01901746041</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>10271</v>
+        <v>1745.9047862114</v>
       </c>
       <c r="M12" t="n">
-        <v>3211</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-157</v>
-      </c>
+        <v>7581.99869285268</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-4020</v>
+        <v>2111.19415165418</v>
       </c>
       <c r="P12" t="n">
-        <v>860</v>
+        <v>14352.0768</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>66790</v>
+        <v>122598.777173716</v>
       </c>
       <c r="T12" t="n">
-        <v>555</v>
+        <v>641.255352953202</v>
       </c>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>646</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27388</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4126</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-44272</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>46968</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>10499</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3919</v>
-      </c>
-      <c r="N13" t="n">
-        <v>951</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>94843</v>
-      </c>
-      <c r="T13" t="n">
-        <v>321</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>840.9189076011</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28317.6540193864</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3875.29996288131</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-37420.9567131543</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>59271.0440629542</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>7755.65541204741</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4517.43077311919</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5507.59641516477</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-87.769785297315</v>
-      </c>
-      <c r="P14" t="n">
-        <v>382.32717325</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>110701.473039892</v>
-      </c>
-      <c r="T14" t="n">
-        <v>321.316098785038</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>986</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16513</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4765</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-64014</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>42993</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>-1198</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4903</v>
-      </c>
-      <c r="N15" t="n">
-        <v>384</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3267</v>
-      </c>
-      <c r="P15" t="n">
-        <v>6129</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>78893</v>
-      </c>
-      <c r="T15" t="n">
-        <v>152</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>969.553161789101</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38273.4433832522</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4122.72794379867</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-10806.6096213505</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>67002.0294113057</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>-10568.5299693679</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11297.9840178457</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7190.89159797184</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3714.81810832518</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7837.24395</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>130106.299635351</v>
-      </c>
-      <c r="T16" t="n">
-        <v>266.13803043</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>938.577208386901</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29705.3095270393</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7207.08628307855</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-16006.8609277016</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>83242.08032541091</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>-19531.0557049216</v>
-      </c>
-      <c r="M17" t="n">
-        <v>14427.1842680231</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6361.30963433837</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-1608.95418695422</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3037.180707</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>124236.579305081</v>
-      </c>
-      <c r="T17" t="n">
-        <v>457.861243679856</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>1151</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-7661</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1310</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-56254</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>50647</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>5381</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6881</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-1164</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5506</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>72537</v>
-      </c>
-      <c r="T18" t="n">
-        <v>211</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>1070.8232714886</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-33844.6328974247</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4320.10160499493</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-79874.5004892205</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>11724.11941288</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>-6342.8544505233</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6383.9780414275</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-565.017682282996</v>
-      </c>
-      <c r="P19" t="n">
-        <v>8636.62726244745</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>-4162.50736580473</v>
-      </c>
-      <c r="T19" t="n">
-        <v>230.653395788139</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>1447.9713386007</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-6899.11483987804</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-2545.2076283553</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-55098.6433531006</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>33078.9021390028</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-4756.7244456253</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6740.02962401207</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>2231.2068776606</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3425.9358</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>39035.6204394207</v>
-      </c>
-      <c r="T20" t="n">
-        <v>358.290926580357</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
